--- a/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_cropped_df.xlsx
@@ -26,13 +26,15 @@
     <sheet name="23__660e0c35-32e1-3b" sheetId="17" r:id="rId17"/>
     <sheet name="25__fefa94a6-9f06-3a" sheetId="18" r:id="rId18"/>
     <sheet name="26__77f9a90f-5d0c-3b" sheetId="19" r:id="rId19"/>
+    <sheet name="4__c09fe481-4d79-3ba" sheetId="20" r:id="rId20"/>
+    <sheet name="6__45029265-bfb6-3df" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="270">
   <si>
     <t>Cash at bank</t>
   </si>
@@ -776,6 +778,72 @@
   </si>
   <si>
     <t>(1,794,319)</t>
+  </si>
+  <si>
+    <t>Service revenue</t>
+  </si>
+  <si>
+    <t>Minor works</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>92279085</t>
+  </si>
+  <si>
+    <t>29612233</t>
+  </si>
+  <si>
+    <t>121891318</t>
+  </si>
+  <si>
+    <t>85281896</t>
+  </si>
+  <si>
+    <t>24692541</t>
+  </si>
+  <si>
+    <t>109974437</t>
+  </si>
+  <si>
+    <t>Current tax</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Aggregate income tax benefit</t>
+  </si>
+  <si>
+    <t>increase in deferred tax assets (note 16)</t>
+  </si>
+  <si>
+    <t>Loss before income tax benefit</t>
+  </si>
+  <si>
+    <t>Tax at the statutory tax rate of 30%</t>
+  </si>
+  <si>
+    <t>Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Income tax benefit</t>
+  </si>
+  <si>
+    <t>(481,027)</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>(1,684,214)</t>
+  </si>
+  <si>
+    <t>(505,264)</t>
+  </si>
+  <si>
+    <t>24237</t>
   </si>
 </sst>
 </file>
@@ -2248,6 +2316,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
